--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
+      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -692,7 +760,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -721,7 +789,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -750,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -779,7 +847,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -808,7 +876,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -837,7 +905,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -865,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -893,7 +961,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -921,7 +989,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -949,7 +1017,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -977,7 +1045,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1033,7 +1101,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1061,7 +1129,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1089,7 +1157,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1117,10 +1185,9 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1132,7 +1199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1144,7 +1211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1155,7 +1222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
-      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -760,7 +692,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -789,7 +721,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -818,7 +750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -847,7 +779,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -876,7 +808,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -905,7 +837,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -933,7 +865,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -961,7 +893,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -989,7 +921,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1017,7 +949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1045,7 +977,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1101,7 +1033,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1129,7 +1061,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1157,7 +1089,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1185,9 +1117,10 @@
         </is>
       </c>
     </row>
+    <row r="23"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1199,7 +1132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1211,7 +1144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1222,7 +1155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,167 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Python Module is t***** file with python statements</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>200519</t>
+  </si>
+  <si>
+    <t>Python Module is text f***** with python statements</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Python Module is text file with p***** statements</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Python Module file e***** with .py extension</t>
+  </si>
+  <si>
+    <t>ends</t>
+  </si>
+  <si>
+    <t>Python Module file ends with .***** extension</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Execute module.py in Command Prompt</t>
+  </si>
+  <si>
+    <t>python module.py</t>
+  </si>
+  <si>
+    <t>Executing a module in i***** mode enables printing the variables' values</t>
+  </si>
+  <si>
+    <t>interactive</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive m***** enables printing the variables' values</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode e***** printing the variables' values</t>
+  </si>
+  <si>
+    <t>enables</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode enables printing the v***** values</t>
+  </si>
+  <si>
+    <t>variables'</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode enables printing the variable's v*****</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Execute module.py in Comand Prompt with Interactive Mode</t>
+  </si>
+  <si>
+    <t>python -i module.py</t>
+  </si>
+  <si>
+    <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
+  </si>
+  <si>
+    <t>python module.py &gt; output.txt</t>
+  </si>
+  <si>
+    <t>"*****" load another module and grant access to its content</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>"import" load another m***** and grant access to its content</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>"import" load another module and g***** access to its content</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>"import" load another module and grant a***** to its content</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>Import module_py</t>
+  </si>
+  <si>
+    <t>import module</t>
+  </si>
+  <si>
+    <t>Importing Module process e***** the module (once per session)</t>
+  </si>
+  <si>
+    <t>executes</t>
+  </si>
+  <si>
+    <t>Importing Module process executes the m***** (once per session)</t>
+  </si>
+  <si>
+    <t>Importing Module process executes the module (once per s*****)</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +310,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,661 +627,479 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
+      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>520</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is t***** file with python statements</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>521</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is text f***** with python statements</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>522</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is text file with p***** statements</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>523</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Python Module file e***** with .py extension</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>ends</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>524</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Python Module file ends with .***** extension</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>py</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Command Prompt</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>python module.py</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>526</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in i***** mode enables printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>interactive</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>527</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive m***** enables printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="n"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>528</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode e***** printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>enables</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>529</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode enables printing the v***** values</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>variables'</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>530</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode enables printing the variable's v*****</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="n"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>531</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Comand Prompt with Interactive Mode</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>python -i module.py</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>532</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>python module.py &gt; output.txt</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>533</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>"*****" load another module and grant access to its content</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16" spans="1:7">
       <c r="A16" t="n">
         <v>534</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>"import" load another m***** and grant access to its content</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="27.6" customHeight="1">
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" t="n">
         <v>535</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>"import" load another module and g***** access to its content</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" t="n">
         <v>536</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>"import" load another module and grant a***** to its content</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>537</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Import module_py</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>import module</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.6" customHeight="1">
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>538</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process e***** the module (once per session)</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>executes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21" spans="1:7">
       <c r="A21" t="n">
         <v>539</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process executes the m***** (once per session)</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="27.6" customHeight="1">
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>540</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process executes the module (once per s*****)</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>session</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="23"/>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1132,7 +1111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1144,7 +1123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1155,7 +1134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,167 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Python Module is t***** file with python statements</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>200519</t>
-  </si>
-  <si>
-    <t>Python Module is text f***** with python statements</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>Python Module is text file with p***** statements</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Python Module file e***** with .py extension</t>
-  </si>
-  <si>
-    <t>ends</t>
-  </si>
-  <si>
-    <t>Python Module file ends with .***** extension</t>
-  </si>
-  <si>
-    <t>py</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Execute module.py in Command Prompt</t>
-  </si>
-  <si>
-    <t>python module.py</t>
-  </si>
-  <si>
-    <t>Executing a module in i***** mode enables printing the variables' values</t>
-  </si>
-  <si>
-    <t>interactive</t>
-  </si>
-  <si>
-    <t>Executing a module in interactive m***** enables printing the variables' values</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>Executing a module in interactive mode e***** printing the variables' values</t>
-  </si>
-  <si>
-    <t>enables</t>
-  </si>
-  <si>
-    <t>Executing a module in interactive mode enables printing the v***** values</t>
-  </si>
-  <si>
-    <t>variables'</t>
-  </si>
-  <si>
-    <t>Executing a module in interactive mode enables printing the variable's v*****</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>Execute module.py in Comand Prompt with Interactive Mode</t>
-  </si>
-  <si>
-    <t>python -i module.py</t>
-  </si>
-  <si>
-    <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
-  </si>
-  <si>
-    <t>python module.py &gt; output.txt</t>
-  </si>
-  <si>
-    <t>"*****" load another module and grant access to its content</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>"import" load another m***** and grant access to its content</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>"import" load another module and g***** access to its content</t>
-  </si>
-  <si>
-    <t>grant</t>
-  </si>
-  <si>
-    <t>"import" load another module and grant a***** to its content</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>Import module_py</t>
-  </si>
-  <si>
-    <t>import module</t>
-  </si>
-  <si>
-    <t>Importing Module process e***** the module (once per session)</t>
-  </si>
-  <si>
-    <t>executes</t>
-  </si>
-  <si>
-    <t>Importing Module process executes the m***** (once per session)</t>
-  </si>
-  <si>
-    <t>Importing Module process executes the module (once per s*****)</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -310,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -627,479 +466,661 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
-      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Python Module is t***** file with python statements</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Python Module is text f***** with python statements</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Python Module is text file with p***** statements</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
         <v>523</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Python Module file e***** with .py extension</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>ends</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>524</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Python Module file ends with .***** extension</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>py</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Execute module.py in Command Prompt</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>python module.py</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Executing a module in i***** mode enables printing the variables' values</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>interactive</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Executing a module in interactive m***** enables printing the variables' values</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
       </c>
       <c r="F9" s="9" t="n"/>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Executing a module in interactive mode e***** printing the variables' values</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>enables</t>
+        </is>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Executing a module in interactive mode enables printing the v***** values</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>variables'</t>
+        </is>
       </c>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Executing a module in interactive mode enables printing the variable's v*****</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
       </c>
       <c r="F12" s="6" t="n"/>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Execute module.py in Comand Prompt with Interactive Mode</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>python -i module.py</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>python module.py &gt; output.txt</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>"*****" load another module and grant access to its content</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>import</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>"import" load another m***** and grant access to its content</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>"import" load another module and g***** access to its content</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>"import" load another module and grant a***** to its content</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>537</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Import module_py</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>import module</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Importing Module process e***** the module (once per session)</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>executes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Importing Module process executes the m***** (once per session)</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7"/>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Importing Module process executes the module (once per s*****)</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>session</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1111,7 +1132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1123,7 +1144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1134,7 +1155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
+      <selection activeCell="D19" pane="bottomLeft" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -692,7 +760,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -721,7 +789,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -750,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -779,7 +847,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -808,7 +876,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -837,7 +905,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -865,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -893,7 +961,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -907,7 +975,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>"*****" load another module and grant access to its content</t>
+          <t>Command "*****" load another module and grant access to its content</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -921,7 +989,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -935,7 +1003,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>"import" load another m***** and grant access to its content</t>
+          <t>Command "import" load another m***** and grant access to its content</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -949,7 +1017,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -963,7 +1031,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>"import" load another module and g***** access to its content</t>
+          <t>Command "import" load another module and g***** access to its content</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -977,7 +1045,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -991,7 +1059,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>"import" load another module and grant a***** to its content</t>
+          <t>Command "import" load another module and grant a***** to its content</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1033,7 +1101,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1047,7 +1115,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process e***** the module (once per session)</t>
+          <t>Importing Module process e***** the imported module (once per session)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1061,7 +1129,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1075,7 +1143,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process executes the m***** (once per session)</t>
+          <t>Importing Module process executes the imported m***** (once per session)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1089,7 +1157,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1103,7 +1171,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process executes the module (once per s*****)</t>
+          <t>Importing Module process executes the imported module (once per s*****)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1117,10 +1185,9 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1132,7 +1199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1144,7 +1211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1155,7 +1222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
-      <selection activeCell="D19" pane="bottomLeft" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -760,7 +692,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -789,7 +721,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -818,7 +750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -847,7 +779,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -876,7 +808,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -905,7 +837,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -933,7 +865,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -961,7 +893,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -989,7 +921,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1017,7 +949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1045,7 +977,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1101,7 +1033,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1129,7 +1061,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1157,7 +1089,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1185,9 +1117,10 @@
         </is>
       </c>
     </row>
+    <row r="23"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1199,7 +1132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1211,7 +1144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1222,7 +1155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,167 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Python Module is t***** file with python statements</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>200519</t>
+  </si>
+  <si>
+    <t>Python Module is text f***** with python statements</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Python Module is text file with p***** statements</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Python Module file e***** with .py extension</t>
+  </si>
+  <si>
+    <t>ends</t>
+  </si>
+  <si>
+    <t>Python Module file ends with .***** extension</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Execute module.py in Command Prompt</t>
+  </si>
+  <si>
+    <t>python module.py</t>
+  </si>
+  <si>
+    <t>Executing a module in i***** mode enables printing the variables' values</t>
+  </si>
+  <si>
+    <t>interactive</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive m***** enables printing the variables' values</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode e***** printing the variables' values</t>
+  </si>
+  <si>
+    <t>enables</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode enables printing the v***** values</t>
+  </si>
+  <si>
+    <t>variables'</t>
+  </si>
+  <si>
+    <t>Executing a module in interactive mode enables printing the variable's v*****</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Execute module.py in Comand Prompt with Interactive Mode</t>
+  </si>
+  <si>
+    <t>python -i module.py</t>
+  </si>
+  <si>
+    <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
+  </si>
+  <si>
+    <t>python module.py &gt; output.txt</t>
+  </si>
+  <si>
+    <t>Command "*****" load another module and grant access to its content</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>Command "import" load another m***** and grant access to its content</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Command "import" load another module and g***** access to its content</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>Command "import" load another module and grant a***** to its content</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>Import module_py</t>
+  </si>
+  <si>
+    <t>import module</t>
+  </si>
+  <si>
+    <t>Importing Module process e***** the imported module (once per session)</t>
+  </si>
+  <si>
+    <t>executes</t>
+  </si>
+  <si>
+    <t>Importing Module process executes the imported m***** (once per session)</t>
+  </si>
+  <si>
+    <t>Importing Module process executes the imported module (once per s*****)</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +310,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,661 +627,479 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
+      <selection activeCell="D19" pane="bottomLeft" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>520</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is t***** file with python statements</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>521</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is text f***** with python statements</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>522</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Python Module is text file with p***** statements</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>523</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Python Module file e***** with .py extension</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>ends</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>524</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Python Module file ends with .***** extension</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>py</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Command Prompt</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>python module.py</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>526</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in i***** mode enables printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>interactive</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>527</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive m***** enables printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="n"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>528</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode e***** printing the variables' values</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>enables</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>529</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode enables printing the v***** values</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>variables'</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>530</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Executing a module in interactive mode enables printing the variable's v*****</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="n"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>531</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Comand Prompt with Interactive Mode</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>python -i module.py</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>532</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Execute module.py in Command Prompt with Stream-Redirection to output.txt</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>python module.py &gt; output.txt</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>533</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Command "*****" load another module and grant access to its content</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16" spans="1:7">
       <c r="A16" t="n">
         <v>534</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Command "import" load another m***** and grant access to its content</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="27.6" customHeight="1">
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" t="n">
         <v>535</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Command "import" load another module and g***** access to its content</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" t="n">
         <v>536</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Command "import" load another module and grant a***** to its content</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>537</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Import module_py</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>import module</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.6" customHeight="1">
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>538</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process e***** the imported module (once per session)</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>executes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21" spans="1:7">
       <c r="A21" t="n">
         <v>539</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process executes the imported m***** (once per session)</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="27.6" customHeight="1">
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>540</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Importing Module process executes the imported module (once per s*****)</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>session</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>200519</t>
-        </is>
-      </c>
-    </row>
-    <row r="23"/>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1132,7 +1111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1144,7 +1123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1155,7 +1134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1117,7 +1117,195 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
+    <row r="23" ht="55.2" customHeight="1">
+      <c r="A23" t="n">
+        <v>735</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(x)\n\nWill the code run?</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="69" customHeight="1">
+      <c r="A24" t="n">
+        <v>736</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nWill the code run?</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="69" customHeight="1">
+      <c r="A25" t="n">
+        <v>737</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="55.2" customHeight="1">
+      <c r="A26" t="n">
+        <v>738</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(module_1.x)\n\nWill the code run?</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="55.2" customHeight="1">
+      <c r="A27" t="n">
+        <v>739</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nWill the code run?</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="55.2" customHeight="1">
+      <c r="A28" t="n">
+        <v>740</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(x)\n\nWill the code run?</t>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nWill the code run?</t>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(module_1.x)\n\nWill the code run?</t>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(module_1.x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nWill the code run?</t>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1305,7 +1305,63 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
+    <row r="29" ht="55.2" customHeight="1">
+      <c r="A29" t="n">
+        <v>741</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nx=5\nfrom  module_1 import x\nprint(x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200620</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="55.2" customHeight="1">
+      <c r="A30" t="n">
+        <v>742</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nx=5\nprint(x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200620</t>
+        </is>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +535,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A29" ySplit="1"/>
+      <selection activeCell="E32" pane="bottomLeft" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -547,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -576,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -663,7 +734,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -692,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -721,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -750,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -779,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -808,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -837,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -865,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -893,7 +964,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -921,7 +992,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -949,7 +1020,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -977,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1033,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1061,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1089,7 +1160,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1117,7 +1188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="69" r="23">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1126,12 +1197,12 @@
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(x)\n\nValid code?</t>
+          <t>module_1 content:\n====================\nx=2\n\nmodule_2 content:\n====================\nimport module_1\nprint(x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1150,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="69" customHeight="1">
+    <row customHeight="1" ht="82.8" r="24">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1159,12 +1230,12 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nValid code?</t>
+          <t>module_1 content:\n====================\nx=2\n\nmodule_2 content:\n====================\nimport module_1\nprint(module_1.x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1183,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1">
+    <row customHeight="1" ht="82.8" r="25">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1192,12 +1263,12 @@
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nimport module_1\nprint(module_1.x)\n\nWhat will be printed?</t>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nimport module_1\nprint(module_1.x)\n\nWhat will be printed?</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1211,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="26">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1220,12 +1291,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(module_1.x)\n\nValid code?</t>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nprint(module_1.x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1244,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="69" r="27">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1253,12 +1324,12 @@
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nValid code?</t>
+          <t>module_1 content:\n====================\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nprint(x)\n\nValid code?</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1277,7 +1348,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="82.8" r="28">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1286,12 +1357,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nprint(x)\n\nWhat will be printed?</t>
+          <t>module_1 content:\n====================\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nprint(x)\n\nWhat will be printed?</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1305,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="82.8" r="29">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1314,12 +1385,12 @@
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nx=5\nfrom  module_1 import x\nprint(x)\n\nWhat will be printed?</t>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nx=5\nfrom module_1 import x\nprint(x)\n\nWhat will be printed?</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1333,7 +1404,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="82.8" r="30">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1342,29 +1413,112 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nx=5\nprint(x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200620</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="82.8" r="31">
+      <c r="A31" t="n">
+        <v>759</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nx=5\nimport module_1\nprint(x)\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>start module_1\n5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200622</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="32">
+      <c r="A32" t="n">
+        <v>743</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>module_1 content:\n=====\nprint('start module_1')\nx=2\n\nmodule_2 content:\n=====\nfrom  module_1 import x\nx=5\nprint(x)\n\nWhat will be printed?</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>start module_1\n5</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>200620</t>
-        </is>
-      </c>
-    </row>
-    <row r="31"/>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>import and print variable x from module_1 (with from)</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>from module_1 import x\nprint(x)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200622</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="33">
+      <c r="A33" t="n">
+        <v>744</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>import and print variable x from module_1 (without from)</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>import module_1\nprint(module_1.x)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200622</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1376,7 +1530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1388,7 +1542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1399,7 +1553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,122 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -535,24 +467,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A29" ySplit="1"/>
-      <selection activeCell="E32" pane="bottomLeft" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -734,7 +666,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -763,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -792,7 +724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -821,7 +753,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -879,7 +811,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -964,7 +896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -992,7 +924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1020,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1048,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1104,7 +1036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1132,7 +1064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1160,7 +1092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1188,7 +1120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="23">
+    <row r="23" ht="69" customHeight="1">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1221,7 +1153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="24">
+    <row r="24" ht="82.8" customHeight="1">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1254,7 +1186,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="25">
+    <row r="25" ht="82.8" customHeight="1">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1282,7 +1214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="26">
+    <row r="26" ht="55.2" customHeight="1">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1315,7 +1247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="27">
+    <row r="27" ht="69" customHeight="1">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1348,7 +1280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="28">
+    <row r="28" ht="82.8" customHeight="1">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1376,7 +1308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="29">
+    <row r="29" ht="82.8" customHeight="1">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1404,7 +1336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="30">
+    <row r="30" ht="82.8" customHeight="1">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1432,7 +1364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="31">
+    <row r="31" ht="82.8" customHeight="1">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1460,7 +1392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1488,7 +1420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="33">
+    <row r="33" ht="41.4" customHeight="1">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1516,9 +1448,10 @@
         </is>
       </c>
     </row>
+    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1530,7 +1463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1542,7 +1475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1553,7 +1486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,54 +149,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,22 +537,22 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="1"/>
+      <selection activeCell="D34" pane="bottomLeft" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -666,7 +734,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -724,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -753,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -811,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -896,7 +964,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -924,7 +992,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -952,7 +1020,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -980,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1036,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1064,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1092,7 +1160,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1120,7 +1188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="23">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1153,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="24">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1186,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="25">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1214,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="26">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1247,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="27">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1280,7 +1348,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="28">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1294,7 +1362,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>module_1 content:\n====================\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nprint(x)\n\nWhat will be printed?</t>
+          <t>module_1 content:\n====================\nprint('start module_1')\nx=2\n\nmodule_2 content:\n====================\nfrom module_1 import x\nprint(x)\n\nWhat will be printed?</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1308,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="29">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1336,7 +1404,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="30">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1364,7 +1432,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="31">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1392,7 +1460,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1420,7 +1488,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="33">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1451,7 +1519,7 @@
     <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1463,7 +1531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1475,7 +1543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1486,7 +1554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,122 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -537,22 +469,22 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="1"/>
-      <selection activeCell="D34" pane="bottomLeft" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -734,7 +666,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -763,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -792,7 +724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -821,7 +753,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -879,7 +811,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -964,7 +896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -992,7 +924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1020,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1048,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1104,7 +1036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1132,7 +1064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1160,7 +1092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1188,7 +1120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="23">
+    <row r="23" ht="69" customHeight="1">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1221,7 +1153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="24">
+    <row r="24" ht="82.8" customHeight="1">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1254,7 +1186,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="25">
+    <row r="25" ht="82.8" customHeight="1">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1282,7 +1214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="26">
+    <row r="26" ht="55.2" customHeight="1">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1315,7 +1247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="27">
+    <row r="27" ht="69" customHeight="1">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1348,7 +1280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="28">
+    <row r="28" ht="82.8" customHeight="1">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1376,7 +1308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="29">
+    <row r="29" ht="82.8" customHeight="1">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1404,7 +1336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="30">
+    <row r="30" ht="82.8" customHeight="1">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1432,7 +1364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="31">
+    <row r="31" ht="82.8" customHeight="1">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1460,7 +1392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1488,7 +1420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="33">
+    <row r="33" ht="41.4" customHeight="1">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1519,7 +1451,7 @@
     <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1531,7 +1463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1543,7 +1475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1554,7 +1486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Core/Module.xlsx
+++ b/Questions/Programming Language/Python/Core/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,54 +149,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,22 +537,22 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="1"/>
+      <selection activeCell="D34" pane="bottomLeft" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -666,7 +734,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -724,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -753,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -811,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -896,7 +964,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -924,7 +992,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -952,7 +1020,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -980,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1036,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1064,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1092,7 +1160,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1120,7 +1188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="23">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1153,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="24">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1186,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="25">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1214,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="26">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1247,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="27">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1280,7 +1348,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="28">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1308,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="29">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1336,7 +1404,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="30">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1364,7 +1432,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="31">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1392,7 +1460,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1420,7 +1488,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="33">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1451,7 +1519,7 @@
     <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1463,7 +1531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1475,7 +1543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1486,7 +1554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>